--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Amable_Nicolas_Denesle/Jacques_Amable_Nicolas_Denesle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Amable_Nicolas_Denesle/Jacques_Amable_Nicolas_Denesle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Amable Nicolas Denesle est un botaniste français, né le 6 décembre 1735 à Paris et mort le 8 août 1819 à Poitiers.
-Élève de Bernard de Jussieu, il est pharmacien à Liège, où il demande, en 1783, un terrain convenable à la culture botanique, demande qui n'est pas acceptée. Il part s'installer à Caen et ensuite à Poitiers[1], il y crée et dirige le jardin botanique de Poitiers en 1787. Il propose dès 1789 de limiter l’usage du tabac à cause de ses usages nocifs. 
+Élève de Bernard de Jussieu, il est pharmacien à Liège, où il demande, en 1783, un terrain convenable à la culture botanique, demande qui n'est pas acceptée. Il part s'installer à Caen et ensuite à Poitiers, il y crée et dirige le jardin botanique de Poitiers en 1787. Il propose dès 1789 de limiter l’usage du tabac à cause de ses usages nocifs. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Neslia (Brassicaceae) lui a été dédié par Augustin Nicaise Desvaux, en 1814.
 </t>
@@ -543,7 +557,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Vienne Nature. Arbres remarquables de la Vienne. Poitiers : Éditions de l'actualité scientifique Poitou-Charentes, 1999 : p. 127  (ISBN 2911320115)
@@ -575,7 +591,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Dhombres (dir.) (1995). Aventures scientifiques. Savants en Poitou-Charentes du XVIe au XXe siècle. Les éditions de l’Actualité Poitou-Charentes (Poitiers) : 262 p.  (ISBN 2-911320-00-X)
 Acte de décès Poitiers du 9 août 1819.
